--- a/ADEWALE TEST CASE.xlsx
+++ b/ADEWALE TEST CASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\KAM\Adewale_AKANO\MOLLO TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF76080-26E7-47D9-9736-6F70F7B1440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2FE037-9D24-4F35-9504-E0A78D3C0F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Document" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Test Suite ID</t>
   </si>
@@ -436,6 +436,24 @@
       <t xml:space="preserve"> Computer has been deleted" was displayed</t>
     </r>
   </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total--&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -526,8 +544,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,41 +628,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF990000"/>
+        <fgColor rgb="FFC4D7EF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFF1C232"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF0B5394"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -678,11 +703,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +807,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -740,9 +819,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,31 +828,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,13 +846,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -805,6 +860,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,6 +1934,570 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Tests</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-62A8-43A0-A702-3AE419E2684E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-62A8-43A0-A702-3AE419E2684E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-62A8-43A0-A702-3AE419E2684E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62A8-43A0-A702-3AE419E2684E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DE473055-CE60-4135-8B93-4AC7AEFF6C72}" type="PERCENTAGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>CREATE</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-62A8-43A0-A702-3AE419E2684E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1851A24B-074E-412A-917A-044E4345F23A}" type="PERCENTAGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>READ</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-62A8-43A0-A702-3AE419E2684E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15849825021872266"/>
+                  <c:y val="8.3020195392242632E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6669505B-CC6F-4702-8633-723B6BDA5B7E}" type="PERCENTAGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>UPDATE</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-62A8-43A0-A702-3AE419E2684E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3267716535433073E-2"/>
+                  <c:y val="0.15828667249927089"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0BCC4C23-0AE8-4DCC-AEA2-15D0B5E09DE2}" type="PERCENTAGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>DELETE</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-62A8-43A0-A702-3AE419E2684E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Web Crossbrowser Test'!$J$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A8-43A0-A702-3AE419E2684E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8165275590551182"/>
+          <c:y val="0.42106918926800818"/>
+          <c:w val="0.16680577427821522"/>
+          <c:h val="0.29536162146398365"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1872,6 +2539,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2903,6 +3610,607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2972,6 +4280,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44041058-EAB8-4CDB-805A-73433B86E704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3183,7 +4527,7 @@
   </sheetPr>
   <dimension ref="A1:N978"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3202,42 +4546,42 @@
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3264,10 +4608,10 @@
       <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -3291,21 +4635,21 @@
       <c r="L3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="12" t="s">
         <v>42</v>
       </c>
@@ -3327,21 +4671,21 @@
       <c r="L4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="12" t="s">
         <v>77</v>
       </c>
@@ -3363,21 +4707,21 @@
       <c r="L5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="12" t="s">
         <v>87</v>
       </c>
@@ -3399,13 +4743,13 @@
       <c r="L6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3414,10 +4758,10 @@
       <c r="C7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -3441,21 +4785,21 @@
       <c r="L7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="12" t="s">
         <v>55</v>
       </c>
@@ -3477,21 +4821,21 @@
       <c r="L8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="12" t="s">
         <v>81</v>
       </c>
@@ -3513,13 +4857,13 @@
       <c r="L9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3528,16 +4872,16 @@
       <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -3546,7 +4890,7 @@
       <c r="I10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>92</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -3555,25 +4899,25 @@
       <c r="L10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="75.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -3582,7 +4926,7 @@
       <c r="I11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>92</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -3591,13 +4935,13 @@
       <c r="L11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3615,7 +4959,7 @@
       <c r="F12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -3624,7 +4968,7 @@
       <c r="I12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>94</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -3633,13 +4977,13 @@
       <c r="L12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3651,15 +4995,15 @@
       <c r="J13" s="12"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -3667,15 +5011,15 @@
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -3683,8 +5027,8 @@
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
@@ -11494,10 +12838,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11513,169 +12857,251 @@
     <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>8</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <v>8</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="22">
         <v>8</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="I2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="37">
+        <v>2</v>
+      </c>
+      <c r="K2" s="37">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37">
+        <v>2</v>
+      </c>
+      <c r="M2" s="38">
+        <v>1</v>
+      </c>
+      <c r="N2" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>2</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="22">
         <v>2</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="I3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="37">
+        <v>2</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="I4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0</v>
+      </c>
+      <c r="K4" s="45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="38">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="26">
         <f>SUM(B2:B3
 )</f>
         <v>10</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="26">
         <f>SUM(C2:C4
 )</f>
         <v>10</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <f t="shared" ref="F5:G5" si="0">SUM(F2:F4
 )</f>
         <v>10</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="I5" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="47">
+        <v>4</v>
+      </c>
+      <c r="K5" s="47">
+        <v>3</v>
+      </c>
+      <c r="L5" s="47">
+        <v>2</v>
+      </c>
+      <c r="M5" s="39">
+        <v>1</v>
+      </c>
+      <c r="N5" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="28">
         <f>B2/B5</f>
         <v>0.8</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="28">
         <f>F2/F5</f>
         <v>0.8</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="28">
         <f>B3/B5</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="28">
         <f>F3/F5</f>
         <v>0.2</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11695,71 +13121,71 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+    <row r="4" spans="1:2" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+    <row r="5" spans="1:2" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+    <row r="6" spans="1:2" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
+    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39">
+    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+    <row r="9" spans="1:2" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
